--- a/src/data/qb_zulehner_aspen9.xlsx
+++ b/src/data/qb_zulehner_aspen9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SuhasVittal/Documents/programming/qcr/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EB70E5-8042-1146-A3B7-AA1C05CF0A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B52CFC-1B2A-884E-8D51-49255E132759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="2560" windowWidth="26040" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
